--- a/APP_DEVELOPER/水泥板螺絲庫存資料.xlsx
+++ b/APP_DEVELOPER/水泥板螺絲庫存資料.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,15 +561,15 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>8241.496999999999</v>
+        <v>2675.2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25030001, 25020016</t>
+          <t>25030001</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>20638.503</v>
+        <v>26204.8</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>16870.503</v>
+        <v>22436.8</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -619,11 +619,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25030002, 25030003</t>
+          <t>25030003, 25030002</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>12502.503</v>
+        <v>18068.8</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7728.103000000003</v>
+        <v>13294.4</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>22128.103</v>
+        <v>27694.4</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>17209.703</v>
+        <v>22776</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>14873.703</v>
+        <v>20440</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10336.103</v>
+        <v>15902.4</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6204.903000000006</v>
+        <v>11771.2</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>35004.90300000001</v>
+        <v>40571.2</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -831,15 +831,15 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>5580.8</v>
+        <v>10262.4</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25040003, 25040004</t>
+          <t>25040003, 25020016, 25040004</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>29424.103</v>
+        <v>30308.8</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -852,21 +852,21 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45849</v>
+        <v>45817</v>
       </c>
       <c r="C16" t="n">
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>9158.09</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25030011</t>
+          <t>25040027, 25040026</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>36624.103</v>
+        <v>21150.71000000001</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -879,21 +879,21 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45853</v>
+        <v>45822</v>
       </c>
       <c r="C17" t="n">
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3132.8</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>25040007</t>
+          <t>25050006</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>43824.103</v>
+        <v>18017.91</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -906,21 +906,21 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45856</v>
+        <v>45824</v>
       </c>
       <c r="C18" t="n">
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>6121.6</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25030011</t>
+          <t>25050008, 25050005</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>51024.103</v>
+        <v>11896.31</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -933,21 +933,21 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45860</v>
+        <v>45831</v>
       </c>
       <c r="C19" t="n">
-        <v>7051.5</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>9686.4</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>25040007</t>
+          <t>25040028, 25050007, 25050009</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>58075.603</v>
+        <v>2209.910000000003</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -960,21 +960,21 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45863</v>
+        <v>45834</v>
       </c>
       <c r="C20" t="n">
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>7561.6</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25030011</t>
+          <t>25050010, 25040029</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>65275.603</v>
+        <v>-5351.690000000002</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -987,21 +987,21 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45870</v>
+        <v>45837</v>
       </c>
       <c r="C21" t="n">
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>3040</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>25030011</t>
+          <t>25050011</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>72475.603</v>
+        <v>-8391.690000000002</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1014,21 +1014,21 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45876</v>
+        <v>45841</v>
       </c>
       <c r="C22" t="n">
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>3040</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25030011</t>
+          <t>25050012</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>79675.603</v>
+        <v>-11431.69</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1041,10 +1041,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45883</v>
+        <v>45849</v>
       </c>
       <c r="C23" t="n">
-        <v>10800</v>
+        <v>7200</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>90475.603</v>
+        <v>-4231.690000000002</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1068,25 +1068,25 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45712</v>
+        <v>45853</v>
       </c>
       <c r="C24" t="n">
-        <v>8416</v>
+        <v>7200</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>24110004, 24110005</t>
+          <t>25040007</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>8416</v>
+        <v>2968.309999999998</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1-5/8</t>
+          <t>1-1/4</t>
         </is>
       </c>
     </row>
@@ -1095,25 +1095,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45740</v>
+        <v>45856</v>
       </c>
       <c r="C25" t="n">
-        <v>8418</v>
+        <v>7200</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>24110019</t>
+          <t>25030011</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>16834</v>
+        <v>10168.31</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1-5/8</t>
+          <t>1-1/4</t>
         </is>
       </c>
     </row>
@@ -1122,25 +1122,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45754</v>
+        <v>45860</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7051.5</v>
       </c>
       <c r="D26" t="n">
-        <v>3035.2</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>25020016, 25030001</t>
+          <t>25040007</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>13798.8</v>
+        <v>17219.81</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1-5/8</t>
+          <t>1-1/4</t>
         </is>
       </c>
     </row>
@@ -1149,25 +1149,25 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45755</v>
+        <v>45863</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>19800</v>
       </c>
       <c r="D27" t="n">
-        <v>2104</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>24110015</t>
+          <t>25040030, 25030011</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>11694.8</v>
+        <v>37019.81</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1-5/8</t>
+          <t>1-1/4</t>
         </is>
       </c>
     </row>
@@ -1176,25 +1176,25 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45761</v>
+        <v>45870</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>11052</v>
       </c>
       <c r="D28" t="n">
-        <v>4656</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>25030002, 25030003</t>
+          <t>25030011, 25040030</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>7038.799999999999</v>
+        <v>48071.81</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1-5/8</t>
+          <t>1-1/4</t>
         </is>
       </c>
     </row>
@@ -1203,25 +1203,25 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45768</v>
+        <v>45876</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="D29" t="n">
-        <v>5049.6</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>25030006, 25030005</t>
+          <t>25030011</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1989.199999999999</v>
+        <v>55271.81</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1-5/8</t>
+          <t>1-1/4</t>
         </is>
       </c>
     </row>
@@ -1230,25 +1230,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45772</v>
+        <v>45883</v>
       </c>
       <c r="C30" t="n">
-        <v>8418</v>
+        <v>10800</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>24110022</t>
+          <t>25030011</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>10407.2</v>
+        <v>66071.81</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1-5/8</t>
+          <t>1-1/4</t>
         </is>
       </c>
     </row>
@@ -1257,25 +1257,25 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45775</v>
+        <v>45884</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>16452</v>
       </c>
       <c r="D31" t="n">
-        <v>5339.2</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>25030008, 25030007</t>
+          <t>25050002</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5068</v>
+        <v>82523.81</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1-5/8</t>
+          <t>1-1/4</t>
         </is>
       </c>
     </row>
@@ -1284,21 +1284,21 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45782</v>
+        <v>45712</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>8416</v>
       </c>
       <c r="D32" t="n">
-        <v>2683.2</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>25030009</t>
+          <t>24110004, 24110005</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2384.799999999999</v>
+        <v>8416</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1311,21 +1311,21 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45789</v>
+        <v>45740</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>8418</v>
       </c>
       <c r="D33" t="n">
-        <v>896</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>25040001</t>
+          <t>24110019</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1488.799999999999</v>
+        <v>16834</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1338,21 +1338,21 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45791</v>
+        <v>45754</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1268.8</v>
+        <v>1993.6</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>25040002</t>
+          <t>25030001</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>220</v>
+        <v>14840.4</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1365,21 +1365,21 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45793</v>
+        <v>45755</v>
       </c>
       <c r="C35" t="n">
-        <v>16836</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2104</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>24120002</t>
+          <t>24110015</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>17056</v>
+        <v>12736.4</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1392,21 +1392,21 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45796</v>
+        <v>45761</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>4870.4</v>
+        <v>4656</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>25040004, 25040003</t>
+          <t>25030002, 25030003</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>12185.6</v>
+        <v>8080.4</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1419,21 +1419,21 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45849</v>
+        <v>45768</v>
       </c>
       <c r="C37" t="n">
-        <v>8418</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>5049.6</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>25040008, 25030012</t>
+          <t>25030005, 25030006</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>20603.6</v>
+        <v>3030.799999999999</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1446,21 +1446,21 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45856</v>
+        <v>45772</v>
       </c>
       <c r="C38" t="n">
-        <v>7038</v>
+        <v>8418</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>25040008, 25030012</t>
+          <t>24110022</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>27641.6</v>
+        <v>11448.8</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1473,21 +1473,21 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45863</v>
+        <v>45775</v>
       </c>
       <c r="C39" t="n">
-        <v>4209</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>5339.2</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>25030012</t>
+          <t>25030008, 25030007</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>31850.6</v>
+        <v>6109.599999999999</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1500,21 +1500,21 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>45870</v>
+        <v>45782</v>
       </c>
       <c r="C40" t="n">
-        <v>4209</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>2683.2</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>25030012</t>
+          <t>25030009</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>36059.6</v>
+        <v>3426.399999999998</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1527,21 +1527,21 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>45877</v>
+        <v>45789</v>
       </c>
       <c r="C41" t="n">
-        <v>4209</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>25030012</t>
+          <t>25040001</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>40268.6</v>
+        <v>2530.399999999998</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1554,21 +1554,21 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45884</v>
+        <v>45791</v>
       </c>
       <c r="C42" t="n">
-        <v>6313.5</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1268.8</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>25030012</t>
+          <t>25040002</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>46582.1</v>
+        <v>1261.599999999999</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1581,25 +1581,25 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>45712</v>
+        <v>45793</v>
       </c>
       <c r="C43" t="n">
-        <v>320</v>
+        <v>16836</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>24110007</t>
+          <t>24120002</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>320</v>
+        <v>18097.6</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2-1/4</t>
+          <t>1-5/8</t>
         </is>
       </c>
     </row>
@@ -1608,25 +1608,25 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45740</v>
+        <v>45796</v>
       </c>
       <c r="C44" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>5912</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>24110020</t>
+          <t>25020016, 25040004, 25040003</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>640</v>
+        <v>12185.6</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2-1/4</t>
+          <t>1-5/8</t>
         </is>
       </c>
     </row>
@@ -1635,25 +1635,25 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45754</v>
+        <v>45817</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>384</v>
+        <v>2489.6</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>25020016, 25030001</t>
+          <t>25040026, 25040027</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>256</v>
+        <v>9696</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2-1/4</t>
+          <t>1-5/8</t>
         </is>
       </c>
     </row>
@@ -1662,25 +1662,25 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45755</v>
+        <v>45822</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>80</v>
+        <v>1972.8</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>24110015</t>
+          <t>25050006</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>176</v>
+        <v>7723.199999999997</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2-1/4</t>
+          <t>1-5/8</t>
         </is>
       </c>
     </row>
@@ -1689,25 +1689,25 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>45761</v>
+        <v>45824</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>640</v>
+        <v>4056</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>25030002, 25030003</t>
+          <t>25050008, 25050005</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>-464</v>
+        <v>3667.199999999997</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2-1/4</t>
+          <t>1-5/8</t>
         </is>
       </c>
     </row>
@@ -1716,25 +1716,25 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45768</v>
+        <v>45831</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>256</v>
+        <v>6049.6</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>25030005</t>
+          <t>25040028, 25050007, 25050009</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>-720</v>
+        <v>-2382.400000000001</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2-1/4</t>
+          <t>1-5/8</t>
         </is>
       </c>
     </row>
@@ -1743,25 +1743,25 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45772</v>
+        <v>45834</v>
       </c>
       <c r="C49" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>3345.6</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>24110023</t>
+          <t>25050010, 25040029</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>-400</v>
+        <v>-5728</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2-1/4</t>
+          <t>1-5/8</t>
         </is>
       </c>
     </row>
@@ -1770,25 +1770,25 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45793</v>
+        <v>45837</v>
       </c>
       <c r="C50" t="n">
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>2193.6</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>24120003</t>
+          <t>25050011</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>240</v>
+        <v>-7921.599999999999</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2-1/4</t>
+          <t>1-5/8</t>
         </is>
       </c>
     </row>
@@ -1797,25 +1797,25 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>45796</v>
+        <v>45841</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>128</v>
+        <v>2104</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>25040003</t>
+          <t>25050012</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>112</v>
+        <v>-10025.6</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2-1/4</t>
+          <t>1-5/8</t>
         </is>
       </c>
     </row>
@@ -1824,25 +1824,25 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45853</v>
+        <v>45849</v>
       </c>
       <c r="C52" t="n">
-        <v>2000</v>
+        <v>8418</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>25030013, 25030022</t>
+          <t>25030012, 25040008</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2112</v>
+        <v>-1607.599999999999</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2-1/4</t>
+          <t>1-5/8</t>
         </is>
       </c>
     </row>
@@ -1851,25 +1851,25 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="C53" t="n">
-        <v>448</v>
+        <v>7038</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>25030013, 25040009</t>
+          <t>25040008, 25030012</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2560</v>
+        <v>5430.400000000001</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2-1/4</t>
+          <t>1-5/8</t>
         </is>
       </c>
     </row>
@@ -1878,23 +1878,725 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="C54" t="n">
+        <v>6313.5</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>25030012, 25040031</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>11743.9</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>1-5/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="C55" t="n">
+        <v>7624.5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>25030012, 25040031</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>19368.4</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1-5/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4209</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>25030012</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>23577.4</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>1-5/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="C57" t="n">
+        <v>11833.5</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>25030012, 25050003</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>35410.9</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>1-5/8</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="C58" t="n">
+        <v>320</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>24110007</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>320</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2-1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="C59" t="n">
+        <v>320</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>24110020</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>640</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2-1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>320</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>25030001</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>320</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2-1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>80</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>24110015</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>240</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2-1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>640</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>25030003, 25030002</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>-400</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2-1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>256</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>25030005</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>-656</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2-1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="C64" t="n">
+        <v>320</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>24110023</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>-336</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2-1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>256</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>25030007</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>-592</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2-1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="C66" t="n">
+        <v>640</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>24120003</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>48</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2-1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>45796</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>192</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>25020016, 25040003</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>-144</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2-1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>45817</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>448</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>25040026, 25040027</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>-592</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2-1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>45822</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>128</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>25050006</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>-720</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2-1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>45824</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>256</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>25050008, 25050005</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>-976</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2-1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>320</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>25050007, 25040028, 25050009</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>-1296</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2-1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>192</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>25050010, 25040029</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>-1488</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2-1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>45837</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>64</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>25050011</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>-1552</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2-1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>128</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>25050012</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>-1680</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2-1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>25030022, 25030013</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>320</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2-1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="C76" t="n">
+        <v>448</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>25030013, 25040009</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>768</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2-1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="n">
         <v>45860</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C77" t="n">
         <v>1360</v>
       </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="inlineStr">
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="inlineStr">
         <is>
           <t>25030022, 25030013</t>
         </is>
       </c>
-      <c r="F54" t="n">
-        <v>3920</v>
-      </c>
-      <c r="G54" t="inlineStr">
+      <c r="F77" t="n">
+        <v>2128</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2-1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="C78" t="n">
+        <v>256</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>25040032</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>2384</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2-1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="C79" t="n">
+        <v>384</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>25040032</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>2768</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2-1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="C80" t="n">
+        <v>640</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>25050004</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>3408</v>
+      </c>
+      <c r="G80" t="inlineStr">
         <is>
           <t>2-1/4</t>
         </is>

--- a/APP_DEVELOPER/水泥板螺絲庫存資料.xlsx
+++ b/APP_DEVELOPER/水泥板螺絲庫存資料.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,7 +700,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>25030008, 25030007</t>
+          <t>25030007, 25030008</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -835,7 +835,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25040003, 25020016, 25040004</t>
+          <t>25020016, 25040004, 25040003</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -862,7 +862,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25040027, 25040026</t>
+          <t>25040026, 25040027</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -939,15 +939,15 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>9686.4</v>
+        <v>6697.6</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>25040028, 25050007, 25050009</t>
+          <t>25050009, 25040028</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2209.910000000003</v>
+        <v>5198.710000000006</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -966,15 +966,15 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>7561.6</v>
+        <v>4521.6</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25050010, 25040029</t>
+          <t>25040029</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>-5351.690000000002</v>
+        <v>677.1100000000006</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -987,21 +987,21 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45837</v>
+        <v>45841</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>3040</v>
+        <v>6028.8</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>25050011</t>
+          <t>25050010, 25050007</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>-8391.690000000002</v>
+        <v>-5351.690000000002</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1014,17 +1014,17 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45841</v>
+        <v>45848</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3040</v>
+        <v>6080</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25050012</t>
+          <t>25050012, 25050011</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>25040030, 25030011</t>
+          <t>25030011, 25040030</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1284,25 +1284,25 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45712</v>
+        <v>45891</v>
       </c>
       <c r="C32" t="n">
-        <v>8416</v>
+        <v>12204</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>24110004, 24110005</t>
+          <t>25050015</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>8416</v>
+        <v>94727.81</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1-5/8</t>
+          <t>1-1/4</t>
         </is>
       </c>
     </row>
@@ -1311,21 +1311,21 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45740</v>
+        <v>45712</v>
       </c>
       <c r="C33" t="n">
-        <v>8418</v>
+        <v>8416</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>24110019</t>
+          <t>24110005, 24110004</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>16834</v>
+        <v>8416</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1338,21 +1338,21 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45754</v>
+        <v>45740</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>8418</v>
       </c>
       <c r="D34" t="n">
-        <v>1993.6</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>25030001</t>
+          <t>24110019</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>14840.4</v>
+        <v>16834</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1365,21 +1365,21 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45755</v>
+        <v>45754</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2104</v>
+        <v>1993.6</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>24110015</t>
+          <t>25030001</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>12736.4</v>
+        <v>14840.4</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1392,21 +1392,21 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45761</v>
+        <v>45755</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>4656</v>
+        <v>2104</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>25030002, 25030003</t>
+          <t>24110015</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>8080.4</v>
+        <v>12736.4</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1419,21 +1419,21 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45768</v>
+        <v>45761</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>5049.6</v>
+        <v>4656</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>25030005, 25030006</t>
+          <t>25030003, 25030002</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3030.799999999999</v>
+        <v>8080.4</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1446,21 +1446,21 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45772</v>
+        <v>45768</v>
       </c>
       <c r="C38" t="n">
-        <v>8418</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5049.599999999999</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>24110022</t>
+          <t>25030006, 25030005</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>11448.8</v>
+        <v>3030.799999999999</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1473,21 +1473,21 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45775</v>
+        <v>45772</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>8418</v>
       </c>
       <c r="D39" t="n">
-        <v>5339.2</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>25030008, 25030007</t>
+          <t>24110022</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>6109.599999999999</v>
+        <v>11448.8</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1500,21 +1500,21 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>45782</v>
+        <v>45775</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2683.2</v>
+        <v>5339.2</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>25030009</t>
+          <t>25030007, 25030008</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3426.399999999998</v>
+        <v>6109.599999999999</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1527,21 +1527,21 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>45789</v>
+        <v>45782</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>896</v>
+        <v>2683.2</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>25040001</t>
+          <t>25030009</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2530.399999999998</v>
+        <v>3426.399999999998</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1554,21 +1554,21 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45791</v>
+        <v>45789</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1268.8</v>
+        <v>896</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>25040002</t>
+          <t>25040001</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1261.599999999999</v>
+        <v>2530.399999999998</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1581,21 +1581,21 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>45793</v>
+        <v>45791</v>
       </c>
       <c r="C43" t="n">
-        <v>16836</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1268.8</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>24120002</t>
+          <t>25040002</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>18097.6</v>
+        <v>1261.599999999999</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1608,21 +1608,21 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45796</v>
+        <v>45793</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>16836</v>
       </c>
       <c r="D44" t="n">
-        <v>5912</v>
+        <v>0</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>25020016, 25040004, 25040003</t>
+          <t>24120002</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>12185.6</v>
+        <v>18097.6</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1635,21 +1635,21 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45817</v>
+        <v>45796</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>2489.6</v>
+        <v>5912</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>25040026, 25040027</t>
+          <t>25040004, 25020016, 25040003</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>9696</v>
+        <v>12185.6</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1662,21 +1662,21 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45822</v>
+        <v>45817</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1972.8</v>
+        <v>2489.6</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>25050006</t>
+          <t>25040027, 25040026</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>7723.199999999997</v>
+        <v>9696</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1689,21 +1689,21 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>45824</v>
+        <v>45822</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>4056</v>
+        <v>1972.8</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>25050008, 25050005</t>
+          <t>25050006</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3667.199999999997</v>
+        <v>7723.199999999997</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1716,21 +1716,21 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45831</v>
+        <v>45824</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>6049.6</v>
+        <v>4056</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>25040028, 25050007, 25050009</t>
+          <t>25050005, 25050008</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>-2382.400000000001</v>
+        <v>3667.199999999997</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1743,21 +1743,21 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45834</v>
+        <v>45831</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>3345.6</v>
+        <v>3966.4</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>25050010, 25040029</t>
+          <t>25050009, 25040028</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>-5728</v>
+        <v>-299.2000000000044</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1770,21 +1770,21 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45837</v>
+        <v>45834</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>2193.6</v>
+        <v>1262.4</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>25050011</t>
+          <t>25040029</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>-7921.599999999999</v>
+        <v>-1561.600000000006</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1803,15 +1803,15 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>2104</v>
+        <v>4166.4</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>25050012</t>
+          <t>25050007, 25050010</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>-10025.6</v>
+        <v>-5728.000000000007</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1824,21 +1824,21 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45849</v>
+        <v>45848</v>
       </c>
       <c r="C52" t="n">
-        <v>8418</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>4297.6</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>25030012, 25040008</t>
+          <t>25050012, 25050011</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>-1607.599999999999</v>
+        <v>-10025.60000000001</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -1851,21 +1851,21 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45856</v>
+        <v>45849</v>
       </c>
       <c r="C53" t="n">
-        <v>7038</v>
+        <v>8418</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>25040008, 25030012</t>
+          <t>25030012, 25040008</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>5430.400000000001</v>
+        <v>-1607.600000000006</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -1878,21 +1878,21 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>45863</v>
+        <v>45856</v>
       </c>
       <c r="C54" t="n">
-        <v>6313.5</v>
+        <v>7038</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>25030012, 25040031</t>
+          <t>25030012, 25040008</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>11743.9</v>
+        <v>5430.399999999994</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -1905,21 +1905,21 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>45870</v>
+        <v>45863</v>
       </c>
       <c r="C55" t="n">
-        <v>7624.5</v>
+        <v>6313.5</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>25030012, 25040031</t>
+          <t>25040031, 25030012</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>19368.4</v>
+        <v>11743.89999999999</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -1932,21 +1932,21 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>45877</v>
+        <v>45870</v>
       </c>
       <c r="C56" t="n">
-        <v>4209</v>
+        <v>7624.5</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>25030012</t>
+          <t>25040031, 25030012</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>23577.4</v>
+        <v>19368.39999999999</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -1959,21 +1959,21 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>45884</v>
+        <v>45877</v>
       </c>
       <c r="C57" t="n">
-        <v>11833.5</v>
+        <v>4209</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>25030012, 25050003</t>
+          <t>25030012</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>35410.9</v>
+        <v>23577.39999999999</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -1986,25 +1986,25 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>45712</v>
+        <v>45884</v>
       </c>
       <c r="C58" t="n">
-        <v>320</v>
+        <v>11833.5</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>24110007</t>
+          <t>25030012, 25050003</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>320</v>
+        <v>35410.89999999999</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2-1/4</t>
+          <t>1-5/8</t>
         </is>
       </c>
     </row>
@@ -2013,25 +2013,25 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>45740</v>
+        <v>45891</v>
       </c>
       <c r="C59" t="n">
-        <v>320</v>
+        <v>8345.549999999999</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>24110020</t>
+          <t>25050016</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>640</v>
+        <v>43756.45</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2-1/4</t>
+          <t>1-5/8</t>
         </is>
       </c>
     </row>
@@ -2040,17 +2040,17 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>45754</v>
+        <v>45712</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="D60" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>25030001</t>
+          <t>24110007</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -2067,21 +2067,21 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>45755</v>
+        <v>45740</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="D61" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>24110015</t>
+          <t>24110020</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>240</v>
+        <v>640</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2094,21 +2094,21 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>45761</v>
+        <v>45754</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>25030003, 25030002</t>
+          <t>25030001</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>-400</v>
+        <v>320</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2121,21 +2121,21 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>45768</v>
+        <v>45755</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>25030005</t>
+          <t>24110015</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>-656</v>
+        <v>240</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2148,21 +2148,21 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>45772</v>
+        <v>45761</v>
       </c>
       <c r="C64" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>24110023</t>
+          <t>25030003, 25030002</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>-336</v>
+        <v>-400</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>45775</v>
+        <v>45768</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2185,11 +2185,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>25030007</t>
+          <t>25030005</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>-592</v>
+        <v>-656</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2202,21 +2202,21 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>45793</v>
+        <v>45772</v>
       </c>
       <c r="C66" t="n">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>24120003</t>
+          <t>24110023</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>48</v>
+        <v>-336</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2229,21 +2229,21 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>45796</v>
+        <v>45775</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>25020016, 25040003</t>
+          <t>25030007</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>-144</v>
+        <v>-592</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2256,21 +2256,21 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>45817</v>
+        <v>45793</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="D68" t="n">
-        <v>448</v>
+        <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>25040026, 25040027</t>
+          <t>24120003</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>-592</v>
+        <v>48</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2283,21 +2283,21 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>45822</v>
+        <v>45796</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>25050006</t>
+          <t>25020016, 25040003</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>-720</v>
+        <v>-144</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2310,21 +2310,21 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>45824</v>
+        <v>45817</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>256</v>
+        <v>448</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>25050008, 25050005</t>
+          <t>25040026, 25040027</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>-976</v>
+        <v>-592</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2337,21 +2337,21 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>45831</v>
+        <v>45822</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>320</v>
+        <v>128</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>25050007, 25040028, 25050009</t>
+          <t>25050006</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>-1296</v>
+        <v>-720</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2364,21 +2364,21 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>45834</v>
+        <v>45824</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>25050010, 25040029</t>
+          <t>25050005, 25050008</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>-1488</v>
+        <v>-976</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2391,21 +2391,21 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>45837</v>
+        <v>45831</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>25050011</t>
+          <t>25050009, 25040028</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>-1552</v>
+        <v>-1168</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2418,21 +2418,21 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>45841</v>
+        <v>45834</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>25050012</t>
+          <t>25040029</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>-1680</v>
+        <v>-1232</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2445,21 +2445,21 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>45853</v>
+        <v>45841</v>
       </c>
       <c r="C75" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>25030022, 25030013</t>
+          <t>25050007, 25050010</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>320</v>
+        <v>-1488</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2472,21 +2472,21 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>45854</v>
+        <v>45848</v>
       </c>
       <c r="C76" t="n">
-        <v>448</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>25030013, 25040009</t>
+          <t>25050012, 25050011</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>768</v>
+        <v>-1680</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2499,10 +2499,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>45860</v>
+        <v>45853</v>
       </c>
       <c r="C77" t="n">
-        <v>1360</v>
+        <v>2000</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -2513,7 +2513,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2128</v>
+        <v>320</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2526,21 +2526,21 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>45863</v>
+        <v>45854</v>
       </c>
       <c r="C78" t="n">
-        <v>256</v>
+        <v>448</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>25040032</t>
+          <t>25030013, 25040009</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2384</v>
+        <v>768</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2553,21 +2553,21 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>45870</v>
+        <v>45860</v>
       </c>
       <c r="C79" t="n">
-        <v>384</v>
+        <v>1360</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>25040032</t>
+          <t>25030022, 25030013</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2768</v>
+        <v>2128</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2580,23 +2580,104 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="C80" t="n">
+        <v>256</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>25040032</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>2384</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2-1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="C81" t="n">
+        <v>384</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>25040032</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>2768</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2-1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2" t="n">
         <v>45884</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C82" t="n">
         <v>640</v>
       </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" t="inlineStr">
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="inlineStr">
         <is>
           <t>25050004</t>
         </is>
       </c>
-      <c r="F80" t="n">
+      <c r="F82" t="n">
         <v>3408</v>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2-1/4</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="C83" t="n">
+        <v>448</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>25050017</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>3856</v>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>2-1/4</t>
         </is>
